--- a/v0.7/StructureDefinition-PreDeterminationResponseDocument.xlsx
+++ b/v0.7/StructureDefinition-PreDeterminationResponseDocument.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HCXPreDeterminationResponseDocument</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-PreDeterminationResponseDocument.html</t>
   </si>
   <si>
     <t>Version</t>
